--- a/02 系统测试/03 测试实施/测试用例2.0/测试用例2.0_杨光亮.xlsx
+++ b/02 系统测试/03 测试实施/测试用例2.0/测试用例2.0_杨光亮.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\03 测试实施\测试用例2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1303D113-F78D-451E-8087-915D158A6D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB53C877-94E1-4364-AB92-F119E545EB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="4" r:id="rId1"/>
@@ -3501,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="A1:X19"/>
     </sheetView>
   </sheetViews>
@@ -4622,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10427,7 +10427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FDD8C-0CE7-4A16-ABB7-B890B29E718B}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
